--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Amhara 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Amhara 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\AHLE parameter tables for subnational divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DC1FD-4C1C-49C9-989B-326B5A4DA7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA412D12-AC1A-4AF7-87FA-7C0706895D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,6 +1396,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1502,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1601,6 +1608,7 @@
     <xf numFmtId="3" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,20 +1931,23 @@
   <dimension ref="A1:HI159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="6" width="42.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="49" style="30" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="30" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="19" style="30" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="30" customWidth="1"/>
     <col min="10" max="10" width="17" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="30" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" style="30" customWidth="1"/>
@@ -4280,7 +4291,7 @@
       <c r="C27" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="43" t="s">
         <v>268</v>
       </c>
       <c r="E27" s="30" t="s">
@@ -4396,7 +4407,7 @@
         <f>80/365</f>
         <v>0.21917808219178081</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="43">
         <f>80/365</f>
         <v>0.21917808219178081</v>
       </c>
@@ -4525,7 +4536,7 @@
       <c r="C29" s="30">
         <v>136.69999999999999</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="43">
         <v>136.69999999999999</v>
       </c>
       <c r="E29" s="44">
@@ -5930,7 +5941,7 @@
       <c r="H46" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="56" t="s">
         <v>265</v>
       </c>
       <c r="J46" s="47" t="s">
@@ -6034,7 +6045,7 @@
       <c r="I47" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="J47" s="47" t="s">
+      <c r="J47" s="56" t="s">
         <v>265</v>
       </c>
       <c r="K47" s="47" t="s">
